--- a/Spi_DataSave/100007000438.xlsx
+++ b/Spi_DataSave/100007000438.xlsx
@@ -461,24 +461,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21552314337</t>
+          <t>21628499888</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>便携性佳。重量仅约300克，非常适合旅行或日常拍摄。它的操作界面友好，开机快，能单手使用，适合抓拍。此外，它还支持触摸屏操作</t>
+          <t>很小一只，携带超级方便，尝试了很多不同配置拍的照片，效果真不错！小小一只才有带出去的欲望📸(^_^)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-10-13 13:07:41</t>
+          <t>2024-10-24 17:06:53</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -492,17 +492,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21542324888</t>
+          <t>21554219803</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>相机拍照非常好，拍出来的效果非常好看，非常喜欢日常拍vlog也非常好用，可以给大家推荐拍照很好，女朋友很喜欢，可以试试，真的很好用</t>
+          <t>像素很好拍照很喜欢给朋友推荐拍视频非常清晰，黑河市嗨起来很好看大家一定会喜欢周围人都很喜欢，大家可以去试试，真的很牛的，加油</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-10-11 17:35:32</t>
+          <t>2024-10-13 20:32:56</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -514,26 +514,21 @@
       <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21552403183</t>
+          <t>21552314337</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G7X3的机身小巧轻便，重约304克，非常适合日常随身携带。相机还具备多种拍摄模式，如美食模式和人像模式，能够满足不同场景的需求</t>
+          <t>便携性佳。重量仅约300克，非常适合旅行或日常拍摄。它的操作界面友好，开机快，能单手使用，适合抓拍。此外，它还支持触摸屏操作</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-10-13 13:24:35</t>
+          <t>2024-10-13 13:07:41</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -554,50 +549,55 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21554219803</t>
+          <t>21552403183</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>像素很好拍照很喜欢给朋友推荐拍视频非常清晰，黑河市嗨起来很好看大家一定会喜欢周围人都很喜欢，大家可以去试试，真的很牛的，加油</t>
+          <t>G7X3的机身小巧轻便，重约304克，非常适合日常随身携带。相机还具备多种拍摄模式，如美食模式和人像模式，能够满足不同场景的需求</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-10-13 20:32:56</t>
+          <t>2024-10-13 13:24:35</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21628499888</t>
+          <t>21755617204</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>很小一只，携带超级方便，尝试了很多不同配置拍的照片，效果真不错！小小一只才有带出去的欲望📸(^_^)</t>
+          <t>质量还是很不错的外观很大气  品牌很硬 能抢到也是非常幸运的，用了好几天了感觉还是非常不错的 给力的东东</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-10-24 17:06:53</t>
+          <t>2024-11-11 11:14:14</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -611,17 +611,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21542330423</t>
+          <t>21646243314</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>拍照效果非常好，拍出来的相照片非常自然，很喜欢可以给大家使用日常出去接拍或者是拍照都很很适合过年给人送朋友也很好，大家可以试试拍照很好</t>
+          <t>全新官方正品，等了很久终于等到了。拍下后过两天就发货了，快递送货上门，很方便。京东自营店买的很放心，希望以后能多点活动。</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-10-11 17:36:26</t>
+          <t>2024-10-27 08:29:27</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -642,24 +642,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21646243314</t>
+          <t>21692995346</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>全新官方正品，等了很久终于等到了。拍下后过两天就发货了，快递送货上门，很方便。京东自营店买的很放心，希望以后能多点活动。</t>
+          <t>货收到后就拆开用了，质量很好，东西和官网买的没有什么区别。实用性和颜值都非常的赞，我很喜欢，还会再来买的发货很快，已经收到货了，商品和描述的差不多，质量没问题，关键价格也合适，在这里买还是很放心的，好评！</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-10-27 08:29:27</t>
+          <t>2024-11-03 15:29:30</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -673,7 +673,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21639277490</t>
+          <t>21639278032</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-10-25 23:27:03</t>
+          <t>2024-10-25 23:27:25</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -704,24 +704,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21692995346</t>
+          <t>21638995075</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>货收到后就拆开用了，质量很好，东西和官网买的没有什么区别。实用性和颜值都非常的赞，我很喜欢，还会再来买的发货很快，已经收到货了，商品和描述的差不多，质量没问题，关键价格也合适，在这里买还是很放心的，好评！</t>
+          <t>不错，都挺不错的，开机时过了 iso 聚光啥的都挺不错的，能下次出去玩的时候拍拍，也比较小巧，方便出去旅行携带，希望能够出片</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-11-03 15:29:30</t>
+          <t>2024-10-25 22:57:37</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -735,17 +735,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21638998292</t>
+          <t>21552381020</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>不错，都挺不错的，挺出片的，比较小巧，是个旅行带出去使用，方便小巧，希望下次能出去玩的时候，多出一些片子，多提升提升自己的技术</t>
+          <t>从成像质量来看，佳能G7X3配备了堆栈式CMOS传感器，能够提供高质量的照片质感，并且佳能的色彩调校风格使得照片看起来自然且鲜艳</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-10-25 22:58:44</t>
+          <t>2024-10-13 13:20:24</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -766,17 +766,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21638995075</t>
+          <t>21638998292</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>不错，都挺不错的，开机时过了 iso 聚光啥的都挺不错的，能下次出去玩的时候拍拍，也比较小巧，方便出去旅行携带，希望能够出片</t>
+          <t>不错，都挺不错的，挺出片的，比较小巧，是个旅行带出去使用，方便小巧，希望下次能出去玩的时候，多出一些片子，多提升提升自己的技术</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-10-25 22:57:37</t>
+          <t>2024-10-25 22:58:44</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -797,41 +797,10 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>21552381020</t>
+          <t>21349736812</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>从成像质量来看，佳能G7X3配备了堆栈式CMOS传感器，能够提供高质量的照片质感，并且佳能的色彩调校风格使得照片看起来自然且鲜艳</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2024-10-13 13:20:24</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>21349736812</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
         <is>
           <t>商品质量超棒，完全超出了我的预期！价格实惠，性价比超高。发货很快，永远相信京东的次日达，不错不错！
 成像效果：高清
@@ -842,33 +811,33 @@
 其他特色：非常非常满意</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>2024-09-11 12:19:34</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
         <v>4</v>
       </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>21536924035</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>成相非常nice，很不错。
 反应速度：非常快，流畅丝滑
@@ -878,28 +847,28 @@
 其他特色：快递挺快的，包装也不错</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>2024-10-10 17:07:32</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>5</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
         <v>2</v>
       </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>21349723057</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>发货很快，已经收到货了，商品和描述的一致，质量没问题，关键价格也合适，在这里买还是很放心的，
 成像效果：高清，画质超高
@@ -908,16 +877,47 @@
 轻便程度：轻便便携，携带方便</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-09-11 12:17:09</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>21358702474</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>说真的，非常好，自带美颜，外观超级小巧，巨适合女生使用，拍摄也很方便，多种滤镜选择，还有延迟拍摄，太棒了!我之前买的太沉了，带出去都懒得带，但这款比手机还小只，出门带着非常方便，而且在室外光线好的情况下，拍照很绝!</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-09-11 12:17:09</t>
+          <t>2024-09-13 14:39:01</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -967,24 +967,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12430734015</t>
+          <t>21337993991</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>还不错，出去玩用的感觉挺好</t>
+          <t>当下最红的网红相机非常喜欢。颜值一绝！思来想去还是觉得X3更有性价比，买新不买旧！好评，祝商家生意兴隆！</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2019-02-01 12:31:23</t>
+          <t>2024-09-08 14:55:11</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -998,134 +998,10 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>21337993991</t>
+          <t>21242285940</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>当下最红的网红相机非常喜欢。颜值一绝！思来想去还是觉得X3更有性价比，买新不买旧！好评，祝商家生意兴隆！</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2024-09-08 14:55:11</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>5</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>21536929565</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>快递运送的挺快的，不错。包装也很严实，没有破损。拆开后惊艳到我了，非常不错，爱了爱了。小巧便利，拍照速度很快，自己调试了，拍了一会。</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2024-10-10 17:08:48</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>5</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>21536938787</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>很轻薄，用起来很方便。快递也很快，包装也很严实。外观挺好看的，自己调试了半天，也问了客服使用方法，拍了会照片，感觉很不错。。</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2024-10-10 17:09:57</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>5</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>21358702474</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>说真的，非常好，自带美颜，外观超级小巧，巨适合女生使用，拍摄也很方便，多种滤镜选择，还有延迟拍摄，太棒了!我之前买的太沉了，带出去都懒得带，但这款比手机还小只，出门带着非常方便，而且在室外光线好的情况下，拍照很绝!</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2024-09-13 14:39:01</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>5</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>21242285940</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
         <is>
           <t>成像效果：挺清晰的 不错
 反应速度：挺快的
@@ -1134,9 +1010,133 @@
 操作简单 适合初学者 造型也好看 轻便</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-08-21 23:39:19</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>21542324888</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>相机拍照非常好，拍出来的效果非常好看，非常喜欢日常拍vlog也非常好用，可以给大家推荐拍照很好，女朋友很喜欢，可以试试，真的很好用</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2024-10-11 17:35:32</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12430734015</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>还不错，出去玩用的感觉挺好</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2019-02-01 12:31:23</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>21213340893</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>拍的真好看，你手机好看，多练练简单易上手，适合新手小白，就是太贵了不过超级喜欢哈哈哈哈哈，nice！</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2024-08-18 20:47:29</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>21536929565</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>快递运送的挺快的，不错。包装也很严实，没有破损。拆开后惊艳到我了，非常不错，爱了爱了。小巧便利，拍照速度很快，自己调试了，拍了一会。</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-08-21 23:39:19</t>
+          <t>2024-10-10 17:08:48</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1157,10 +1157,41 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>21536938787</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>很轻薄，用起来很方便。快递也很快，包装也很严实。外观挺好看的，自己调试了半天，也问了客服使用方法，拍了会照片，感觉很不错。。</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2024-10-10 17:09:57</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>21247968959</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>性价比高 成像速度快
 反应灵敏 操作简单 日常使用足够了
@@ -1171,47 +1202,16 @@
 外形外观：简单好看</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>2024-08-22 13:24:32</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>5</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="n">
         <v>2</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>21213340893</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>拍的真好看，你手机好看，多练练简单易上手，适合新手小白，就是太贵了不过超级喜欢哈哈哈哈哈，nice！</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2024-08-18 20:47:29</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>5</v>
-      </c>
-      <c r="E26" t="n">
-        <v>5</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1225,50 +1225,49 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>21542330423</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>拍照效果非常好，拍出来的相照片非常自然，很喜欢可以给大家使用日常出去接拍或者是拍照都很很适合过年给人送朋友也很好，大家可以试试拍照很好</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2024-10-11 17:36:26</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>21364065076</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>买来送朋友的，她很喜欢，很高兴。
 商品物美价廉，商品质量没毛病，价格实惠到家。物流快如闪电，商家服务耐心，售后负责，真心不错！</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>2024-09-14 18:16:54</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>5</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>21317020914</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>G7X3配备了约2010万有效像素的堆栈式CMOS图像感应器，结合DIGIC 8数字影像处理器，具备高画质与高性能的成像效果。
-能够精细还原被摄体细节，色彩还原准确，层次丰富。无论是拍摄风景、人像还是微距，都可以</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2024-09-03 21:20:29</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -1279,6 +1278,11 @@
       </c>
       <c r="F28" t="n">
         <v>1</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1314,17 +1318,18 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>21298810772</t>
+          <t>21317020914</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>搭载了1英寸CMOS图像感应器和DIGIC 7影像处理器，有效像素高达2010万，能够拍摄细腻丰富的照片和短片。对焦性能出色，尤其是人脸识别功能，虽然没有全像素双核对焦，但对焦准确性和速度表现良好</t>
+          <t>G7X3配备了约2010万有效像素的堆栈式CMOS图像感应器，结合DIGIC 8数字影像处理器，具备高画质与高性能的成像效果。
+能够精细还原被摄体细节，色彩还原准确，层次丰富。无论是拍摄风景、人像还是微距，都可以</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024-08-30 20:27:09</t>
+          <t>2024-09-03 21:20:29</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1336,26 +1341,21 @@
       <c r="F30" t="n">
         <v>1</v>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>21450995413</t>
+          <t>21298810772</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>这款相机以其卓越的成像质量令人印象深刻，无论是细腻的色彩还原还是丰富的细节捕捉，都展现出专业级的水准。轻便的机身设计便于携带，同时又不失操作的流畅与专业性。智能对焦系统迅速且准确，即使在低光环境下也能拍出清晰明亮的照片。其强大的视频录制能力，支持4K高清录制，让每一刻精彩瞬间都能生动再现。此外，丰富的拍摄模式与滤镜选择，让摄影新手也能轻松创作出个性化作品，是摄影爱好者和专业摄影师的理想选择。</t>
+          <t>搭载了1英寸CMOS图像感应器和DIGIC 7影像处理器，有效像素高达2010万，能够拍摄细腻丰富的照片和短片。对焦性能出色，尤其是人脸识别功能，虽然没有全像素双核对焦，但对焦准确性和速度表现良好</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024-09-27 14:18:13</t>
+          <t>2024-08-30 20:27:09</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1407,50 +1407,55 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20921762100</t>
+          <t>21450995413</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>观望了好久，终于入手了，很有质感的一款相机，拍照清晰度很高，自己调一调参数，拍的皮肤很透亮，就是刚入手还不太熟悉</t>
+          <t>这款相机以其卓越的成像质量令人印象深刻，无论是细腻的色彩还原还是丰富的细节捕捉，都展现出专业级的水准。轻便的机身设计便于携带，同时又不失操作的流畅与专业性。智能对焦系统迅速且准确，即使在低光环境下也能拍出清晰明亮的照片。其强大的视频录制能力，支持4K高清录制，让每一刻精彩瞬间都能生动再现。此外，丰富的拍摄模式与滤镜选择，让摄影新手也能轻松创作出个性化作品，是摄影爱好者和专业摄影师的理想选择。</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2024-06-11 14:04:28</t>
+          <t>2024-09-27 14:18:13</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>21089910937</t>
+          <t>20921762100</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>收到货一拆开快递，感觉这卡片机的外观很好看，产品重量小小的才300克，带出门很轻便，随时都可以装兜里，拍摄效果感觉自然清新，画面干净细腻，有防抖也有4k，边走边拍也不会糊片，视频画面也很稳定，简直就是vlog神器。</t>
+          <t>观望了好久，终于入手了，很有质感的一款相机，拍照清晰度很高，自己调一调参数，拍的皮肤很透亮，就是刚入手还不太熟悉</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024-07-21 23:51:06</t>
+          <t>2024-06-11 14:04:28</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -1459,10 +1464,67 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>21089910937</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>收到货一拆开快递，感觉这卡片机的外观很好看，产品重量小小的才300克，带出门很轻便，随时都可以装兜里，拍摄效果感觉自然清新，画面干净细腻，有防抖也有4k，边走边拍也不会糊片，视频画面也很稳定，简直就是vlog神器。</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2024-07-21 23:51:06</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20883794985</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>真的非常好用诶 很适合女生随身携带放到包包里，而且上翻屏幕很适合自拍，相机质感非常好拿在手里小小的一个，直出效果也很喜欢，可以拍出冷白皮</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2024-06-03 09:44:13</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>21115557667</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>成像效果：拍摄人像非常棒，冷白皮的感觉
 反应速度：抓拍效果也很强
@@ -1472,73 +1534,16 @@
 其他特色：走哪就可以拍哪的那种，不是大块头很方便携带</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>2024-07-29 00:24:00</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>5</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="n">
         <v>3</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>20883794985</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>真的非常好用诶 很适合女生随身携带放到包包里，而且上翻屏幕很适合自拍，相机质感非常好拿在手里小小的一个，直出效果也很喜欢，可以拍出冷白皮</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2024-06-03 09:44:13</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>5</v>
-      </c>
-      <c r="E36" t="n">
-        <v>3</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>20820505414</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>快递很快，质量棒极了，建议购买特别满意，好评必须好评一次很好的购物体验，服务周到，物流快速，配送也很周到，态度也很好，好评！</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2024-05-18 22:31:17</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>5</v>
-      </c>
-      <c r="E37" t="n">
-        <v>2</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -1547,41 +1552,98 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20980596349</t>
+          <t>20820505414</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>相机性能强大，画质细腻，让我在拍摄过程中得到了极大的满足。卖家服务周到，解答问题及时，让我购物过程非常愉快。发货速度快，包装完好，值得信赖。附一张外出参观博物馆的照片，可见解淅力很強。</t>
+          <t>快递很快，质量棒极了，建议购买特别满意，好评必须好评一次很好的购物体验，服务周到，物流快速，配送也很周到，态度也很好，好评！</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2024-06-23 10:07:38</t>
+          <t>2024-05-18 22:31:17</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>5</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>20980596349</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>相机性能强大，画质细腻，让我在拍摄过程中得到了极大的满足。卖家服务周到，解答问题及时，让我购物过程非常愉快。发货速度快，包装完好，值得信赖。附一张外出参观博物馆的照片，可见解淅力很強。</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2024-06-23 10:07:38</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>369969689</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>佳能相机，品质不错，物有所值。</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2014-07-08 09:56:29</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>21108774369</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>外形外观：小巧玲珑，精致大气，看上去实在是诱惑满满
 轻便程度：携带方便，实分的转巧，可随身放在衣袋里
@@ -1589,99 +1651,42 @@
 成像效果：成像质量高，色彩逼真</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>2024-07-27 08:05:08</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>5</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="n">
         <v>4</v>
       </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>21093102261</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>收到人生中第一台相机！📸(^_^)纠结了很久，为了给老婆好的情绪价值，打算买一个相机，学习摄影技巧🤩相机颜值确实高，而且操作简单，就是很多参数不太懂还有待学习，主要是客服也很耐心解答，购物体验很棒！</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2024-07-22 20:15:11</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>5</v>
-      </c>
-      <c r="E40" t="n">
-        <v>3</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>20830848521</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>佳能（Canon）PowerShot G7 X Mark II G7X2 数码相机 **log相机 这款相机简直是最爱，成像效果明显很好，反应速度极快，包装大气上档次，价格还美丽，兄弟们冲冲冲！！！</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2024-05-21 16:09:04</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>5</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2</v>
-      </c>
       <c r="F41" t="n">
         <v>1</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>369969689</t>
+          <t>20830848521</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>佳能相机，品质不错，物有所值。</t>
+          <t>佳能（Canon）PowerShot G7 X Mark II G7X2 数码相机 **log相机 这款相机简直是最爱，成像效果明显很好，反应速度极快，包装大气上档次，价格还美丽，兄弟们冲冲冲！！！</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2014-07-08 09:56:29</t>
+          <t>2024-05-21 16:09:04</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -1695,24 +1700,24 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20926361660</t>
+          <t>20890254094</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>送给孩子的生日礼物🎁，外观小巧精致，上手手感特别舒服，拍照成像效果非常不错，拍照反应速度极快，家里孩子非常喜欢，给点赞</t>
+          <t>总体上来说还不错 有索尼zv1了 再入一个佳能g7x2 很适合拍vlog记录生活 京东物流很不错  618在京东买了很多东西了 还是比较信任的</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2024-06-12 15:04:01</t>
+          <t>2024-06-04 15:08:53</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>5</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -1721,55 +1726,50 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20952892296</t>
+          <t>21093102261</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>相机非常好，与卖家描述的完全一致, 真的很喜欢，完全超出期望值，发货速度非常快，包装非常仔细、严实，物流公司服务态度很好，运送速度很快，很满意的一次购物，质量很好， 希望更多的朋友信赖。店主态度特好，会再次光顾的好卖家。赞，发货迅速，态度很好，很满意！很好很好！网上购物这么激烈，没想到店家的服务这么好，商品质量好而价低廉，很热情的卖家，下次还来，希望下次还有机会合作。祝你生意兴隆！</t>
+          <t>收到人生中第一台相机！📸(^_^)纠结了很久，为了给老婆好的情绪价值，打算买一个相机，学习摄影技巧🤩相机颜值确实高，而且操作简单，就是很多参数不太懂还有待学习，主要是客服也很耐心解答，购物体验很棒！</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2024-06-18 00:51:43</t>
+          <t>2024-07-22 20:15:11</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>5</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20890254094</t>
+          <t>20926361660</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>总体上来说还不错 有索尼zv1了 再入一个佳能g7x2 很适合拍vlog记录生活 京东物流很不错  618在京东买了很多东西了 还是比较信任的</t>
+          <t>送给孩子的生日礼物🎁，外观小巧精致，上手手感特别舒服，拍照成像效果非常不错，拍照反应速度极快，家里孩子非常喜欢，给点赞</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2024-06-04 15:08:53</t>
+          <t>2024-06-12 15:04:01</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>5</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -1778,17 +1778,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20921297369</t>
+          <t>20952892296</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>非常不错的一个自拍神器小卡片相机拍人像非常划算也好看，体积又不大体积，小巧携带方便性能很强大的一款全新的卡片相机拍人像拍摄为那个短视频非常不错</t>
+          <t>相机非常好，与卖家描述的完全一致, 真的很喜欢，完全超出期望值，发货速度非常快，包装非常仔细、严实，物流公司服务态度很好，运送速度很快，很满意的一次购物，质量很好， 希望更多的朋友信赖。店主态度特好，会再次光顾的好卖家。赞，发货迅速，态度很好，很满意！很好很好！网上购物这么激烈，没想到店家的服务这么好，商品质量好而价低廉，很热情的卖家，下次还来，希望下次还有机会合作。祝你生意兴隆！</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2024-06-11 12:10:41</t>
+          <t>2024-06-18 00:51:43</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1809,24 +1809,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>21147233708</t>
+          <t>20921297369</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>我一直喜欢在京东购物，京东商品质量有保证，并且经常搞活动，优惠力度很大，售前售后服务很到位，物流速度快，送货小哥态度好。今次购买商品佳能相机G7X3包装完整，质量好，是正品，每次在京东购物都很舒心，以后会继续支持京东。</t>
+          <t>非常不错的一个自拍神器小卡片相机拍人像非常划算也好看，体积又不大体积，小巧携带方便性能很强大的一款全新的卡片相机拍人像拍摄为那个短视频非常不错</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2024-08-06 10:13:57</t>
+          <t>2024-06-11 12:10:41</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>5</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -1840,52 +1840,57 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>21147233708</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>我一直喜欢在京东购物，京东商品质量有保证，并且经常搞活动，优惠力度很大，售前售后服务很到位，物流速度快，送货小哥态度好。今次购买商品佳能相机G7X3包装完整，质量好，是正品，每次在京东购物都很舒心，以后会继续支持京东。</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2024-08-06 10:13:57</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>21059844827</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>相机不错，适合新手小白。
 外形外观：外观比较好看，小巧方便携带
 反应速度：反应速度快，上手能力快与伞及三塞八</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>2024-07-13 21:01:43</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>5</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="n">
         <v>3</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>21022717541</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>相机小巧，携带方便，外观时尚。无论在光线充足的白天还是光线较暗的夜晚，都能拍出清晰细腻的照片。特别在拍摄人像时，肤色自然，背景虚化效果也很好。</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2024-07-03 15:08:15</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>5</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -1894,10 +1899,65 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>21022717541</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>相机小巧，携带方便，外观时尚。无论在光线充足的白天还是光线较暗的夜晚，都能拍出清晰细腻的照片。特别在拍摄人像时，肤色自然，背景虚化效果也很好。</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2024-07-03 15:08:15</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>21300182724</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>成像效果：特别棒，还是相机拍出来的好看。
+反应速度：现在的相机比之前的反应快多了，还有很多模板可以用，和手机相机一样容易上手。
+产品性能：佳能的品质还是信得过的。
+轻便程度：十分小巧，但是特别有质感，摄像入门选他就对了，外出携带特别方便。</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2024-08-31 08:56:29</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>19814444365</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>成像效果：很好，画面非常清
 反应速度：开机迅速，调焦也很快，指哪打哪，感觉不出有延迟
@@ -1906,33 +1966,33 @@
 其他特色：送了电池充电器，充电方便，但是没有配sd卡，刚收到相机时是不能直接拍照的，需要另外购买sd卡，希望以后能标配</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>2023-09-24 13:07:03</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>5</v>
-      </c>
-      <c r="E50" t="n">
+      <c r="D52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" t="n">
         <v>7</v>
       </c>
-      <c r="F50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>20295844310</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>成像效果：满意，越来越好了
 轻便程度：握感舒适，很轻盈
@@ -1940,68 +2000,16 @@
 其他特色：增加了一些新功能</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>2023-12-26 20:30:08</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>5</v>
-      </c>
-      <c r="E51" t="n">
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="n">
         <v>4</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>20378601777</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>各大博主在用的vlog 神器，一直犹豫在买2还是买3，秉承买新不买旧的原则，还是选了3。开箱打开真的太香了吧，外观真的超级漂亮，拍摄也是很奈斯。</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2024-01-19 14:58:03</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>5</v>
-      </c>
-      <c r="E52" t="n">
-        <v>5</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>17765281301</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>卡片机的不二之选。佳能这款卡片机，体型优美。小而灵活。机身结构紧凑。手感舒适。超级可伸缩镜头。大屏幕取景窗。铝合金外表。满满的科技感和质感。</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2022-07-11 14:52:23</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>5</v>
-      </c>
-      <c r="E53" t="n">
-        <v>9</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
@@ -2010,24 +2018,24 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20217934103</t>
+          <t>20378601777</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>本来买了R50 但是自拍好难 又买了卡片机 真是非常小巧啊 自拍拍人很好看 所有的相机都有了自己的赛道 不愧是佳能</t>
+          <t>各大博主在用的vlog 神器，一直犹豫在买2还是买3，秉承买新不买旧的原则，还是选了3。开箱打开真的太香了吧，外观真的超级漂亮，拍摄也是很奈斯。</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2023-12-06 13:30:39</t>
+          <t>2024-01-19 14:58:03</t>
         </is>
       </c>
       <c r="D54" t="n">
         <v>5</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
@@ -2036,24 +2044,24 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20225072039</t>
+          <t>17765281301</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>一直想都买一个相机 在微单和这款相机之间纠结了很久 最终决定这款便携的相机 很喜欢这种风格 推荐！</t>
+          <t>卡片机的不二之选。佳能这款卡片机，体型优美。小而灵活。机身结构紧凑。手感舒适。超级可伸缩镜头。大屏幕取景窗。铝合金外表。满满的科技感和质感。</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2023-12-08 17:06:22</t>
+          <t>2022-07-11 14:52:23</t>
         </is>
       </c>
       <c r="D55" t="n">
         <v>5</v>
       </c>
       <c r="E55" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
@@ -2062,17 +2070,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20279463003</t>
+          <t>21657173263</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>外观好看，很复古，拍出来有磨皮效果，很多模式可以调，出片率高！</t>
+          <t>拆开看了，感觉真不错，很精致，小巧可爱，准备开始我的拍照生涯了，很喜欢。</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2023-12-22 14:31:20</t>
+          <t>2024-10-28 22:01:57</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -2093,24 +2101,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>19044368173</t>
+          <t>20217934103</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>颜值非常不错👌 非常轻巧 外出很方便 拍出来照片质感比手机好 用来平常随手拍拍记录生活 刚收到没几天 还在继续研究中</t>
+          <t>本来买了R50 但是自拍好难 又买了卡片机 真是非常小巧啊 自拍拍人很好看 所有的相机都有了自己的赛道 不愧是佳能</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2023-04-22 12:48:52</t>
+          <t>2023-12-06 13:30:39</t>
         </is>
       </c>
       <c r="D57" t="n">
         <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
@@ -2119,17 +2127,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>19078813568</t>
+          <t>20225072039</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>巨好看！像素绝绝子！不要犹豫快点下单，客服态度超好的，真的太喜欢了，拿这个记录青春不迷茫！如果不相信就看看图吧. 成像效果：成像效果：高清  轻便程度：轻便程度：还没手掌大 ，很小巧 外形外观：好看</t>
+          <t>一直想都买一个相机 在微单和这款相机之间纠结了很久 最终决定这款便携的相机 很喜欢这种风格 推荐！</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2023-05-03 17:14:20</t>
+          <t>2023-12-08 17:06:22</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2145,50 +2153,55 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>18841086238</t>
+          <t>20279463003</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>非常漂亮，小巧可爱，我很喜欢💕确实有我iphone 13原相机拍不出来的美，画质很漂亮、很还原现实色彩。入手的第一款相机📷，爱了爱了❤️</t>
+          <t>外观好看，很复古，拍出来有磨皮效果，很多模式可以调，出片率高！</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2023-03-01 13:42:29</t>
+          <t>2023-12-22 14:31:20</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>5</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20398090530</t>
+          <t>19044368173</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>收到相机📷啦！！人生中的第一台相机，纠结大半年了，最后还是激情下单了，颜值真的很高，但是还不是很会使，需要多研究研究！客服解答问题也很耐心，购物体验不错。</t>
+          <t>颜值非常不错👌 非常轻巧 外出很方便 拍出来照片质感比手机好 用来平常随手拍拍记录生活 刚收到没几天 还在继续研究中</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2024-01-23 18:33:45</t>
+          <t>2023-04-22 12:48:52</t>
         </is>
       </c>
       <c r="D60" t="n">
         <v>5</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
@@ -2197,10 +2210,171 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>19078813568</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>巨好看！像素绝绝子！不要犹豫快点下单，客服态度超好的，真的太喜欢了，拿这个记录青春不迷茫！如果不相信就看看图吧. 成像效果：成像效果：高清  轻便程度：轻便程度：还没手掌大 ，很小巧 外形外观：好看</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2023-05-03 17:14:20</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>20779903036</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>价格有点小贵，出去旅游拍照了一下，拍人像还是很不错的，很小，一直手就可以握住，很方便，妥妥的口袋机，直接塞口袋就可以很方便。</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2024-05-08 16:00:21</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>154451563</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>刚用相机，还没发现缺点</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2013-05-13 20:14:00</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>3</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>18841086238</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>非常漂亮，小巧可爱，我很喜欢💕确实有我iphone 13原相机拍不出来的美，画质很漂亮、很还原现实色彩。入手的第一款相机📷，爱了爱了❤️</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2023-03-01 13:42:29</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" t="n">
+        <v>6</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>20398090530</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>收到相机📷啦！！人生中的第一台相机，纠结大半年了，最后还是激情下单了，颜值真的很高，但是还不是很会使，需要多研究研究！客服解答问题也很耐心，购物体验不错。</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2024-01-23 18:33:45</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>20729236299</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>用苹果13拍照对比，近照清晰度二者相当，但相机北京虚化明显好。远景，相机清晰度高很多。与佳能5D4比，清晰度和防抖还是有明显差距，当然价格差距也很多。该相机便携，功能全，还是很值得入手！</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2024-04-24 14:12:41</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>14837816254</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>成像效果：成像效果不错，2000万以上的有效像素，就算在自动模式下拍出来的照片都很好了。
 反应速度：开机速度超快，自动对焦在拍照模式下速度也不错，但是在拍短视频时速度又去欠缺，这老毛病了。
@@ -2209,90 +2383,59 @@
 外形外观：虽然小巧但不缺硬朗，操作键附近的仿皮手感很棒。</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>2020-11-03 20:18:38</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>5</v>
-      </c>
-      <c r="E61" t="n">
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="n">
         <v>8</v>
       </c>
-      <c r="F61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>18632931822</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>买的新款佳能（Canon）PowerShot G7 X Mark III G7X3 数码相机，小巧轻便，便于携带。很有质感，外观时尚。拍照效果很专业，即使是阴天，也不影响效果！操作简单，新手也容易上手！</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>2022-12-31 21:45:11</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>5</v>
-      </c>
-      <c r="E62" t="n">
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="n">
         <v>4</v>
       </c>
-      <c r="F62" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>154451563</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>刚用相机，还没发现缺点</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>2013-05-13 20:14:00</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>3</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>19849751916</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>成像效果：非常棒的效果，永远相信佳能！
 反应速度：很灵敏，反应超快。
@@ -2301,28 +2444,28 @@
 外形外观：太好看啦！已经离不开它了</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>2023-09-27 21:30:46</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>5</v>
-      </c>
-      <c r="E64" t="n">
+      <c r="D69" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" t="n">
         <v>3</v>
       </c>
-      <c r="F64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>18769650238</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>成像效果：成像不错，清晰 可选美颜滤镜。
 反应速度：反应极快。
@@ -2332,296 +2475,322 @@
 其他特色：个人很推荐，佳能真的超级无敌棒。</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>2023-02-10 14:25:19</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>5</v>
-      </c>
-      <c r="E65" t="n">
+      <c r="D70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" t="n">
         <v>3</v>
       </c>
-      <c r="F65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>20473208179</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>心心念念的相机到手，出去拍了很多照片，时间不凑巧都是晚上，夜景也很优秀。我属于懒人拍法，根本不会调各种参数，就用的自动，要求不高的话也很不错，导入手机也很方便</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>2024-02-12 13:14:51</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>5</v>
-      </c>
-      <c r="E66" t="n">
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="n">
         <v>3</v>
       </c>
-      <c r="F66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>18669849800</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>人像拍照很赞，自带滤镜，拍出来的照片也好看，爱了爱了，性价比也高，新手值得入，不错</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>2023-01-08 20:51:54</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>5</v>
-      </c>
-      <c r="E67" t="n">
+      <c r="D72" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" t="n">
         <v>2</v>
       </c>
-      <c r="F67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>20236640671</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>之前用朋友的感觉拍照很好看，自己也买一个，很小巧，带出门方便，直接放到小包包里就可以了，也不重，很适合女生的相机</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>2023-12-11 20:58:12</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>5</v>
-      </c>
-      <c r="E68" t="n">
+      <c r="D73" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" t="n">
         <v>4</v>
       </c>
-      <c r="F68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>18727006559</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>佳能G7X2VLOG神器全高清短片拍摄，具有2010万有效像素，尤其是适合各种博主随时随地都可以拍摄出绝美照片，相机外观小巧便携，向上翻转触控屏，快速连续对焦
 机内防抖边走边拍，高画质图像，自动水平校准功能，真是妥妥的神器</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>2023-01-28 09:35:14</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>5</v>
-      </c>
-      <c r="E69" t="n">
+      <c r="D74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" t="n">
         <v>4</v>
       </c>
-      <c r="F69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>20175424079</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>画面非常清楚，反应速度迅速,调焦也很快轻便携带方便很棒的小机器，又方便携带，性价比又高。产品性能非常高。外观很好，外形也非常棒。成像效果简直太棒了。期盼好久的相机，早买早享受。</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>2023-11-23 20:56:15</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>5</v>
-      </c>
-      <c r="E70" t="n">
+      <c r="D75" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" t="n">
         <v>3</v>
       </c>
-      <c r="F70" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>20385963077</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>机子的性能真的是非常好 给儿子买的 自己也体验了一下 发现比我现在用的相机性能真的强大太多了 佳能的笔记本果然名不虚传 体验感非常好 以后还会继续支持佳能的机子</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>2024-01-21 16:10:50</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>5</v>
-      </c>
-      <c r="E71" t="n">
+      <c r="D76" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" t="n">
         <v>4</v>
       </c>
-      <c r="F71" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>20773648475</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>专业的事交给专业的设备，虽然现在的手机也能拍照片拍的很好，但是需要各种的调节，拍照片有条件的话还是应该选择更专业的设备，真的拍出来的照片很好，各样的场景，真的也可以排出网上的照片了</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2024-05-06 21:38:30</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>18949616880</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>超级好看！非常漂亮，小巧可爱，我很喜欢	确实有我	
 iphone13原相机拍不出来的美，画质很漂亮、很还原现实色彩。入手的第二款相机！相信大品牌！质量信的过的</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>2023-03-27 16:16:59</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>5</v>
-      </c>
-      <c r="E72" t="n">
+      <c r="D78" t="n">
+        <v>5</v>
+      </c>
+      <c r="E78" t="n">
         <v>3</v>
       </c>
-      <c r="F72" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>17259759594</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>相机非常不错，比我预想的要小巧很多，一个手掌轻松放下！把电池充满电以后，装上SD卡试了一下。拍照的画质还是非常不错的，功能也很多，预制的滤镜也比较丰富。期待周末的时候外拍再看细节。佳能老牌子了，性价比也高，绝对放心！</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>2022-03-16 20:23:59</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>5</v>
-      </c>
-      <c r="E73" t="n">
+      <c r="D79" t="n">
+        <v>5</v>
+      </c>
+      <c r="E79" t="n">
         <v>3</v>
       </c>
-      <c r="F73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>17437644467</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>相机调控好了，拍照效果好，拍照效果很清晰，运行速度快。跟情绪，用来直播视频拍摄很满意，比手机效果要强。有直播朋友推荐可以考虑这个方案。值得推荐购买和5星好评</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>2022-05-02 13:10:00</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>5</v>
-      </c>
-      <c r="E74" t="n">
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" t="n">
         <v>4</v>
       </c>
-      <c r="F74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>17884396531</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>第一台相机📷，棒棒哒！今天带出去拍照，感觉非常的轻巧便携，操作也很简单。外观简单大气，颜值比我高！
 老爹说等有活动他有考虑入台可以记录生活的相机。哈哈哈哈哈哈反正就是非常非常的赞啦🥳</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>2022-08-07 22:11:19</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>5</v>
-      </c>
-      <c r="E75" t="n">
+      <c r="D81" t="n">
+        <v>5</v>
+      </c>
+      <c r="E81" t="n">
         <v>4</v>
       </c>
-      <c r="F75" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>19609301921</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>给大家分享一下我的使用感受～
 我特别喜欢用这款相机录视频因为它拍起来显的皮肤
@@ -2632,54 +2801,54 @@
 相机可以自己调参数特别简单很好操作然后我有自己琢磨一些适合自己的相机参数大家喜欢我可以分享出来</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>2023-09-02 00:46:38</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>5</v>
-      </c>
-      <c r="E76" t="n">
+      <c r="D82" t="n">
+        <v>5</v>
+      </c>
+      <c r="E82" t="n">
         <v>4</v>
       </c>
-      <c r="F76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>19357426119</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>成像效果快而且清晰度高，反应速度快而且准确率很高，产品性能也是美哒哒滴，轻便携带，外形外观简单大气，这下出去游玩再也不怕拍照了，出镜高清无码，美！美！</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>2023-07-21 18:24:12</t>
         </is>
       </c>
-      <c r="D77" t="n">
-        <v>5</v>
-      </c>
-      <c r="E77" t="n">
+      <c r="D83" t="n">
+        <v>5</v>
+      </c>
+      <c r="E83" t="n">
         <v>3</v>
       </c>
-      <c r="F77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>19056299869</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>这款相机真的真的很棒😍😍
 不仅性价比高，而且机身小巧可爱，
@@ -2691,80 +2860,80 @@
 喜欢的小伙伴们赶紧加购吧</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>2023-04-25 21:33:57</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>5</v>
-      </c>
-      <c r="E78" t="n">
+      <c r="D84" t="n">
+        <v>5</v>
+      </c>
+      <c r="E84" t="n">
         <v>4</v>
       </c>
-      <c r="F78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>20387086014</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>刚收到货 第一时间就来反馈了～外观超好看！拍出来的照片效果也不错👍🏻 很久很久之前就想买的  做了很多功课～终于中草了～嘿嘿😁开心😁❤️</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>2024-01-21 20:50:17</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>5</v>
-      </c>
-      <c r="E79" t="n">
-        <v>5</v>
-      </c>
-      <c r="F79" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="D85" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>15756923349</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>非常喜欢佳能的色彩，白白嫩嫩的。奶油肌。拍人像也非常好看，特别小清新，效果简直太戳我心了。触屏使用起来很简单，还有4k视频，双核对焦，虚警器，各项功能非常齐全，选择套餐非常丰富，教材使用可以学很多课程，帮助小白摄影成长。固件你升级到最新的版本，对焦速度也非常快，非常推荐。</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>2021-06-03 22:05:46</t>
         </is>
       </c>
-      <c r="D80" t="n">
-        <v>5</v>
-      </c>
-      <c r="E80" t="n">
+      <c r="D86" t="n">
+        <v>5</v>
+      </c>
+      <c r="E86" t="n">
         <v>9</v>
       </c>
-      <c r="F80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>18388468251</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>轻便程度：揣在口袋里就可以了，非常轻便
 反应速度：对焦慢名不虚传哈哈哈哈哈哈哈
@@ -2772,54 +2941,54 @@
 成像效果：拍人像很好看，自带磨皮效果</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>2022-11-14 18:00:55</t>
         </is>
       </c>
-      <c r="D81" t="n">
-        <v>5</v>
-      </c>
-      <c r="E81" t="n">
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="n">
         <v>2</v>
       </c>
-      <c r="F81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>20543499642</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>相机很不错，看了很多博主都买，果然收到手手感很不错，拍的照片也很好看，相比手机还是要有一台相机了，出门带着很方便，记录小孩的日常生活，很nice!</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>2024-03-05 12:24:05</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>5</v>
-      </c>
-      <c r="E82" t="n">
+      <c r="D88" t="n">
+        <v>5</v>
+      </c>
+      <c r="E88" t="n">
         <v>2</v>
       </c>
-      <c r="F82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>17439987545</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>拍照效果不错。
 成像效果：很好
@@ -2831,28 +3000,28 @@
 第一次用就很好很好很好。 推荐购买了。很好拍照清晰，适合专业非专业人实在好用哈哈！</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>2022-05-02 23:21:02</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>5</v>
-      </c>
-      <c r="E83" t="n">
+      <c r="D89" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" t="n">
         <v>6</v>
       </c>
-      <c r="F83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>19687006792</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>成像效果：成像没的说，佳能老用户了，很熟悉各项操作
 反应速度：开关机反应可以的
@@ -2861,122 +3030,122 @@
 外形外观：外形很好看，简约小巧，出门喜欢携带</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>2023-09-14 11:12:19</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>5</v>
-      </c>
-      <c r="E84" t="n">
+      <c r="D90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="n">
         <v>2</v>
       </c>
-      <c r="F84" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>18714162384</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>刚到就迫不及待打开了 网络上各种各样的测评 看得眼花缭乱 买之前很犹豫 不知道该不该入手 到手之后还是觉得 适合自己的就是最好的 这款相机颜值高又轻便 拍人像也不错 完全符合我的要求 所以不觉得后悔</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>2023-01-20 14:15:16</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>5</v>
-      </c>
-      <c r="E85" t="n">
+      <c r="D91" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" t="n">
         <v>3</v>
       </c>
-      <c r="F85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>20214170222</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>成像效果：佳能的人像效果很值得信赖
 反应速度：相机反应速度快，很喜欢</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>2023-12-05 11:20:56</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>5</v>
-      </c>
-      <c r="E86" t="n">
-        <v>5</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="D92" t="n">
+        <v>5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>18377477382</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>像素特别高，是自拍的一个神器，做视频的一个编辑博主用起来很好，然后反应速度快，像速度高，性能比较优越的比较轻，别携带外观，手感合适</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>2022-11-12 21:57:25</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>5</v>
-      </c>
-      <c r="E87" t="n">
+      <c r="D93" t="n">
+        <v>5</v>
+      </c>
+      <c r="E93" t="n">
         <v>3</v>
       </c>
-      <c r="F87" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>19327691068</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>演唱会的时候再去拍了，效果很好，满意
 成像效果：非常好
@@ -2987,28 +3156,28 @@
 其他特色：有多种拍摄模式可以选择，非常好用，屏幕调参数也很方便</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>2023-07-12 15:19:00</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>5</v>
-      </c>
-      <c r="E88" t="n">
+      <c r="D94" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" t="n">
         <v>2</v>
       </c>
-      <c r="F88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>19785061150</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>很喜欢拍照很漂亮！
 成像效果：非常喜欢成片效果很棒
@@ -3018,33 +3187,33 @@
 外形外观：很喜欢，小巧好拿</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>2023-09-21 12:51:38</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>5</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="D95" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>17370908155</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>原来用索尼拍照太素了，还是卡片机用起来方便。拍照片也好看，快门挺快的，续航也不错可以用一天。
 成像效果：不错
@@ -3054,28 +3223,28 @@
 外形外观：好看</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>2022-04-15 21:10:23</t>
         </is>
       </c>
-      <c r="D90" t="n">
-        <v>5</v>
-      </c>
-      <c r="E90" t="n">
-        <v>5</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="D96" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>5</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>17791100288</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>成像效果：好看，很清晰，人像好看
 反应速度：很快，一点也不卡
@@ -3084,33 +3253,33 @@
 外形外观：黑色，高级大方，旋转屏幕爱了</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>2022-07-17 17:27:00</t>
         </is>
       </c>
-      <c r="D91" t="n">
-        <v>5</v>
-      </c>
-      <c r="E91" t="n">
+      <c r="D97" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" t="n">
         <v>2</v>
       </c>
-      <c r="F91" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>20189585928</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>轻便程度：非常好
 外形外观：好
@@ -3120,33 +3289,33 @@
 其他特色：导出视频图片很快</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>2023-11-27 23:01:06</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v>5</v>
-      </c>
-      <c r="E92" t="n">
+      <c r="D98" t="n">
+        <v>5</v>
+      </c>
+      <c r="E98" t="n">
         <v>2</v>
       </c>
-      <c r="F92" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>18690593368</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>轻便程度：非常小巧，手账大小可以放口袋里毫无压力
 反应速度：开机很快，按键反馈也很及时
@@ -3154,28 +3323,28 @@
 外形外观：黑色比较低调大气，握持手感尚可</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>2023-01-13 20:13:12</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>5</v>
-      </c>
-      <c r="E93" t="n">
+      <c r="D99" t="n">
+        <v>5</v>
+      </c>
+      <c r="E99" t="n">
         <v>2</v>
       </c>
-      <c r="F93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t>20071054592</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>很轻哦，带出门很方便，而且不会相机的也可以使用的很顺！拍出来的照片可合心水！
 产品性能：性价比可以
@@ -3183,54 +3352,54 @@
 外形外观：好看</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>2023-11-01 19:30:52</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v>5</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="D100" t="n">
+        <v>5</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
         <is>
           <t>12915195886</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>家里单反退役，手机又不能满足需要。考察了微单和卡片，有佳能M100，佳能M50，索尼黑卡5，G7X mark2，最终选择这款机器，实际用了一周，各项性能完全满足需要，非常满意。单反微单真的不实用，一般使用者又不是为了照相而出游，反而成为出游的负担。能看懂日文界面的可以在全球购下手，便宜400。618下单，三六九九，又用上积攒了很久的京豆，很便宜。连卡都是红包买的，不花钱。京东物流一如既往地给力，全好评。</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>2019-06-19 20:51:17</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>5</v>
-      </c>
-      <c r="E95" t="n">
+      <c r="D101" t="n">
+        <v>5</v>
+      </c>
+      <c r="E101" t="n">
         <v>9</v>
       </c>
-      <c r="F95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
         <is>
           <t>17843560661</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>这款相机家庭用还是很不错的，用了很久才来评论，功能还在摸索中，
 成像效果：成像效果很好👍
@@ -3241,116 +3410,145 @@
 其他特色：配送速度还可以，这个颜色很好看。</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>2022-07-29 12:48:08</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>5</v>
-      </c>
-      <c r="E96" t="n">
+      <c r="D102" t="n">
+        <v>5</v>
+      </c>
+      <c r="E102" t="n">
         <v>2</v>
       </c>
-      <c r="F96" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
         <is>
           <t>20295831009</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>一直用Powershot，性能不错，稳定，不出错，所以这次也买了升级款，送货速度很快，全新机，配件也很实用，等用一段时间之后再来评价。谢谢客服的介绍和推荐。</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>2023-12-26 20:26:34</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>5</v>
-      </c>
-      <c r="E97" t="n">
+      <c r="D103" t="n">
+        <v>5</v>
+      </c>
+      <c r="E103" t="n">
         <v>3</v>
       </c>
-      <c r="F97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>21023266601</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>相机小白，色彩各方面挺不错，还在研究学习中，店铺客服服务很不错，推荐的</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2024-07-03 17:26:45</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>5</v>
+      </c>
+      <c r="E104" t="n">
+        <v>5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
         <is>
           <t>20478448312</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>一直喜欢拍照片，决定要买个相机 这次刚好趁个活动 有货 赶紧下手了，结果很便宜，收到货太喜欢了 哈哈哈</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>2024-02-15 13:55:12</t>
         </is>
       </c>
-      <c r="D98" t="n">
-        <v>5</v>
-      </c>
-      <c r="E98" t="n">
+      <c r="D105" t="n">
+        <v>5</v>
+      </c>
+      <c r="E105" t="n">
         <v>3</v>
       </c>
-      <c r="F98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
         <is>
           <t>17775999397</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>等了好久，终于有货了，马上入手一台。相机非常棒，精致小巧颜值高，拍照方便，容易上手，朋友有用过的一直推荐，果然不错，值得购买。</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>2022-07-14 09:32:31</t>
         </is>
       </c>
-      <c r="D99" t="n">
-        <v>5</v>
-      </c>
-      <c r="E99" t="n">
+      <c r="D106" t="n">
+        <v>5</v>
+      </c>
+      <c r="E106" t="n">
         <v>3</v>
       </c>
-      <c r="F99" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
         <is>
           <t>13430559304</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>反应速度：支持短片4K，拍照清晰
 产品性能：vlog和自拍神器
@@ -3359,28 +3557,29 @@
 其他特色：作为一台随拍相机，佳能G7 X Mark Ⅲ真的非常好用，十分适合那些对于画质有一定要求却又不想背负沉重的单反的。当然，没有完美的机器，要说缺点的话，就是相比上代而言，G7X Mark Ⅲ的对焦性能几乎没有提升，不过经过固件升级后就非常好了，不会出现拉风箱。另外电池续航能力如果能进一步提升就再好不过了。总体来说宝贝是非常值得购买，用来记录生活绝对够用。如果还有主播也可以入手，接口最全了，都有哦！目前非常满意</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>2019-11-09 08:01:22</t>
         </is>
       </c>
-      <c r="D100" t="n">
-        <v>5</v>
-      </c>
-      <c r="E100" t="n">
+      <c r="D107" t="n">
+        <v>5</v>
+      </c>
+      <c r="E107" t="n">
         <v>9</v>
       </c>
-      <c r="F100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
         <is>
           <t>20241314242</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>成像效果：很好
 反应速度：很快
@@ -3388,225 +3587,16 @@
 产品性能：使用起感觉很好</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>2023-12-12 23:19:11</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>5</v>
-      </c>
-      <c r="E101" t="n">
+      <c r="D108" t="n">
+        <v>5</v>
+      </c>
+      <c r="E108" t="n">
         <v>3</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>20412712487</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>看中这款相机很久了，终于买到手了，反应速度挺灵敏的，成像效果很清晰，很多功能还有待于研究一下，提升拍照水平，佳能大品牌值得信赖，京东物流很快，隔天就到了，很满意。</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>2024-01-25 17:02:33</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>5</v>
-      </c>
-      <c r="E102" t="n">
-        <v>2</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1</v>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>20927791454</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>相机配件齐全，颜色很漂亮，拍照效果很清晰。查过防伪码是正品，而且保修卡资质齐全</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>2024-06-12 20:40:05</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>5</v>
-      </c>
-      <c r="E103" t="n">
-        <v>3</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>20221058420</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>这个相机有点让我小惊喜，本来以为那么小巧拍出来的画质会不会不好，结果拍出来的效果让我很喜欢！！有小巧有方便！很喜欢！！</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>2023-12-07 12:45:45</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>5</v>
-      </c>
-      <c r="E104" t="n">
-        <v>3</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>17839715914</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>对于我这个摄影爱好者来说，该有的功能都有了！非常美观，很符合我的审美观，各种构图拍出来的效果都超赞，爱了爱了，自带美颜，太棒了！！</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>2022-07-28 16:33:55</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>5</v>
-      </c>
-      <c r="E105" t="n">
-        <v>2</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>18443632318</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>佳能G7X相机真的挺好的，小巧还特别的方便，拍摄照片的效果也特别的好，功能还比较全，最主要的是外出游玩不用承担多大的负重了，商家发货速度也非常快，包装也结实</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>2022-11-26 13:41:55</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>5</v>
-      </c>
-      <c r="E106" t="n">
-        <v>3</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1</v>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>无回复</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>19692317040</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>超级好，终于合适的价格入手了，早上下单下午到，全新原封，JD很放心，拍照清晰，拍人像很白超级好看，配了三星的蓝卡pro。强烈推荐佳能</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>2023-09-14 19:56:02</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>5</v>
-      </c>
-      <c r="E107" t="n">
-        <v>3</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1</v>
-      </c>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>18295185679</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>相机挺小巧的，但是质感很好，取景拍摄挺好用的，效果也好，记录美好，靠这一机在手，习惯他的质感，习惯它的操作，习惯这种静静的记录的方式</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>2022-10-28 16:28:30</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>5</v>
-      </c>
-      <c r="E108" t="n">
-        <v>2</v>
       </c>
       <c r="F108" t="n">
         <v>1</v>
@@ -3620,24 +3610,24 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>17873842883</t>
+          <t>21542231289</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>包装完美，宝贝小巧精致，上手感觉很好，跟手机重量差不多，好评</t>
+          <t>对于像我这样的拍照小白来说，这款相机真的很适合入手。参数也比较好调节，还可以自定义一些自己喜欢的参数，内部还有一些自带的滤镜，拍出来的图片根本不用再后期调色，就很方便</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2022-08-05 10:07:18</t>
+          <t>2024-10-11 17:14:07</t>
         </is>
       </c>
       <c r="D109" t="n">
         <v>5</v>
       </c>
       <c r="E109" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
         <v>1</v>
@@ -3651,44 +3641,48 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>10127473187</t>
+          <t>20412712487</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>东西很好用，功能很强大，摄像质量没的说，日本制造，轻便便携，触摸屏，可以翻转自拍</t>
+          <t>看中这款相机很久了，终于买到手了，反应速度挺灵敏的，成像效果很清晰，很多功能还有待于研究一下，提升拍照水平，佳能大品牌值得信赖，京东物流很快，隔天就到了，很满意。</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2017-02-13 22:48:32</t>
+          <t>2024-01-25 17:02:33</t>
         </is>
       </c>
       <c r="D110" t="n">
         <v>5</v>
       </c>
       <c r="E110" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
       </c>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>无回复</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>21169897176</t>
+          <t>20927791454</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>京东购物服务还是可以的，时效快，包装严谨，套餐配件该有的都配了，5星好评。佳能相机效果还是可以的。</t>
+          <t>相机配件齐全，颜色很漂亮，拍照效果很清晰。查过防伪码是正品，而且保修卡资质齐全</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2024-08-11 14:16:07</t>
+          <t>2024-06-12 20:40:05</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -3709,24 +3703,24 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>19538541526</t>
+          <t>20221058420</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>相机很小巧，也很轻便，这款机子就是溢价太高，好在体积胜出，带出门很方便，女生用太合适不过了，拍视频照片都挺通透的，早买早享受</t>
+          <t>这个相机有点让我小惊喜，本来以为那么小巧拍出来的画质会不会不好，结果拍出来的效果让我很喜欢！！有小巧有方便！很喜欢！！</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2023-08-15 17:04:56</t>
+          <t>2023-12-07 12:45:45</t>
         </is>
       </c>
       <c r="D112" t="n">
         <v>5</v>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F112" t="n">
         <v>1</v>
